--- a/biology/Médecine/Jacques_de_Champlain/Jacques_de_Champlain.xlsx
+++ b/biology/Médecine/Jacques_de_Champlain/Jacques_de_Champlain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques de Champlain est un scientifique, médecin et professeur québécois né à Québec le 13 mars 1938 et mort le 15 juillet 2009 (à 71 ans)[1] en excursion au Vermont[2] mais résidant à Montréal[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques de Champlain est un scientifique, médecin et professeur québécois né à Québec le 13 mars 1938 et mort le 15 juillet 2009 (à 71 ans) en excursion au Vermont mais résidant à Montréal,.
 Diplômé de l'Université de Montréal (m.d. 1962) et l'Université McGill (Ph.D. 1965), il est un pionnier dans la recherche sur le système nerveux.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1990 - Research Achievement Award de la Société canadienne de cardiologie
 1990 - Prix Léo-Pariseau
@@ -521,11 +535,11 @@
 1991 - Cœur Québec-Argent de la Fondation des maladies du cœur du Québec
 1993 - Membre de la Société royale du Canada
 1994 - Médaille McLauglin
-1996 - Prix Wilder-Penfield[3]
+1996 - Prix Wilder-Penfield
 1998 - Prix de l'œuvre scientifique (AMLFC)
 1998 - Prix Michel-Sarrazin
-1997 - Officier de l'Ordre du Canada[5]
-1999 - Officier de l'Ordre national du Québec[6]</t>
+1997 - Officier de l'Ordre du Canada
+1999 - Officier de l'Ordre national du Québec</t>
         </is>
       </c>
     </row>
